--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheen\Desktop\SS\SumergeAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\New folder (2)\Automation-Challenge-master\SumergeAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD0D86B-6BAB-455B-89AD-7D23448370DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A1C7D-FA6E-4527-8F3A-4208E0F2CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>location</t>
   </si>
@@ -34,10 +34,22 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>span[aria-label='We 1 October 2025']</t>
-  </si>
-  <si>
-    <t>span[aria-label='Tu 14 October 2025']</t>
+    <t>Tu 14 October 2025</t>
+  </si>
+  <si>
+    <t>We 1 October 2025</t>
+  </si>
+  <si>
+    <t>actualCheckIn</t>
+  </si>
+  <si>
+    <t>Wed, Oct 1</t>
+  </si>
+  <si>
+    <t>actualCheckOut</t>
+  </si>
+  <si>
+    <t>Tue, Oct 14</t>
   </si>
 </sst>
 </file>
@@ -96,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,9 +172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,26 +207,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,26 +242,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,20 +418,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,19 +443,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>